--- a/الأنتاج اليومي 2023.xlsx
+++ b/الأنتاج اليومي 2023.xlsx
@@ -9612,10 +9612,10 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="L3" s="260">
         <f>(L22-L9)/1000</f>
-        <v>88.254999999999995</v>
+        <v>97.317999999999998</v>
       </c>
       <c r="M3" s="260">
         <f>(M22-M9)/1000</f>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="L4" s="257">
         <f>L22-L9</f>
-        <v>88255</v>
+        <v>97318</v>
       </c>
       <c r="M4" s="235">
         <f>M22-M9</f>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="L5" s="257">
         <f>L4/L2</f>
-        <v>9290</v>
+        <v>10244</v>
       </c>
       <c r="M5" s="235">
         <f>M4/M2</f>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="L22" s="235">
         <f>SUMIF(F5:F64,L21,H5:H64)</f>
-        <v>164920</v>
+        <v>173983</v>
       </c>
       <c r="M22" s="235">
         <f>SUMIF(F5:F64,M21,H5:H64)</f>
@@ -10485,7 +10485,7 @@
       </c>
       <c r="L23" s="235">
         <f>L22/L21</f>
-        <v>17360</v>
+        <v>18314</v>
       </c>
       <c r="M23" s="235">
         <f>M22/M21</f>
@@ -10899,10 +10899,10 @@
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B39" s="236">
-        <v>45283</v>
+        <v>45282</v>
       </c>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
@@ -10923,30 +10923,37 @@
     </row>
     <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B40" s="236">
-        <v>45284</v>
-      </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
+        <v>45283</v>
+      </c>
+      <c r="C40" s="34">
+        <v>53</v>
+      </c>
+      <c r="D40" s="34">
+        <v>18</v>
+      </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="235"/>
+      <c r="F40" s="235">
+        <v>9.5</v>
+      </c>
       <c r="G40" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="H40" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9063</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B41" s="236">
-        <v>45285</v>
+        <f>B40+1</f>
+        <v>45284</v>
       </c>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -10963,10 +10970,11 @@
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B42" s="236">
-        <v>45286</v>
+        <f t="shared" ref="B42:B63" si="10">B41+1</f>
+        <v>45285</v>
       </c>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
@@ -10983,10 +10991,11 @@
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B43" s="236">
-        <v>45287</v>
+        <f t="shared" si="10"/>
+        <v>45286</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -11003,10 +11012,11 @@
     </row>
     <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B44" s="236">
-        <v>45288</v>
+        <f t="shared" si="10"/>
+        <v>45287</v>
       </c>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -11023,10 +11033,11 @@
     </row>
     <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B45" s="236">
-        <v>45289</v>
+        <f t="shared" si="10"/>
+        <v>45288</v>
       </c>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
@@ -11043,10 +11054,11 @@
     </row>
     <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B46" s="236">
-        <v>45290</v>
+        <f t="shared" si="10"/>
+        <v>45289</v>
       </c>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -11063,10 +11075,11 @@
     </row>
     <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B47" s="236">
-        <v>45291</v>
+        <f t="shared" si="10"/>
+        <v>45290</v>
       </c>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -11083,10 +11096,11 @@
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B48" s="236">
-        <v>45292</v>
+        <f t="shared" si="10"/>
+        <v>45291</v>
       </c>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -11103,10 +11117,11 @@
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B49" s="236">
-        <v>45293</v>
+        <f t="shared" si="10"/>
+        <v>45292</v>
       </c>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -11123,10 +11138,11 @@
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B50" s="236">
-        <v>45294</v>
+        <f t="shared" si="10"/>
+        <v>45293</v>
       </c>
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
@@ -11143,10 +11159,11 @@
     </row>
     <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B51" s="236">
-        <v>45295</v>
+        <f t="shared" si="10"/>
+        <v>45294</v>
       </c>
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
@@ -11163,10 +11180,11 @@
     </row>
     <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B52" s="236">
-        <v>45296</v>
+        <f t="shared" si="10"/>
+        <v>45295</v>
       </c>
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
@@ -11183,10 +11201,11 @@
     </row>
     <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B53" s="236">
-        <v>45297</v>
+        <f t="shared" si="10"/>
+        <v>45296</v>
       </c>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
@@ -11203,10 +11222,11 @@
     </row>
     <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B54" s="236">
-        <v>45298</v>
+        <f t="shared" si="10"/>
+        <v>45297</v>
       </c>
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
@@ -11223,10 +11243,11 @@
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B55" s="236">
-        <v>45299</v>
+        <f t="shared" si="10"/>
+        <v>45298</v>
       </c>
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
@@ -11243,10 +11264,11 @@
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B56" s="236">
-        <v>45300</v>
+        <f t="shared" si="10"/>
+        <v>45299</v>
       </c>
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
@@ -11263,10 +11285,11 @@
     </row>
     <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B57" s="236">
-        <v>45301</v>
+        <f t="shared" si="10"/>
+        <v>45300</v>
       </c>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
@@ -11283,121 +11306,127 @@
     </row>
     <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B58" s="236">
-        <v>45302</v>
+        <f t="shared" si="10"/>
+        <v>45301</v>
       </c>
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
       <c r="E58" s="34"/>
       <c r="F58" s="235"/>
       <c r="G58" s="238">
-        <f t="shared" ref="G58" si="10">C58*D58+E58</f>
+        <f t="shared" ref="G58" si="11">C58*D58+E58</f>
         <v>0</v>
       </c>
       <c r="H58" s="238">
-        <f t="shared" ref="H58" si="11">G58*F58</f>
+        <f t="shared" ref="H58" si="12">G58*F58</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B59" s="236">
-        <v>45303</v>
+        <f t="shared" si="10"/>
+        <v>45302</v>
       </c>
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
       <c r="E59" s="34"/>
       <c r="F59" s="235"/>
       <c r="G59" s="238">
-        <f t="shared" ref="G59:G63" si="12">C59*D59+E59</f>
+        <f t="shared" ref="G59:G63" si="13">C59*D59+E59</f>
         <v>0</v>
       </c>
       <c r="H59" s="238">
-        <f t="shared" ref="H59:H63" si="13">G59*F59</f>
+        <f t="shared" ref="H59:H63" si="14">G59*F59</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B60" s="236">
-        <v>45304</v>
+        <f t="shared" si="10"/>
+        <v>45303</v>
       </c>
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
       <c r="E60" s="34"/>
       <c r="F60" s="235"/>
       <c r="G60" s="238">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H60" s="238">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B61" s="236">
-        <v>45305</v>
+        <f t="shared" si="10"/>
+        <v>45304</v>
       </c>
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
       <c r="E61" s="34"/>
       <c r="F61" s="235"/>
       <c r="G61" s="238">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H61" s="238">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B62" s="236">
-        <v>45306</v>
+        <f t="shared" si="10"/>
+        <v>45305</v>
       </c>
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
       <c r="E62" s="34"/>
       <c r="F62" s="235"/>
       <c r="G62" s="238">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H62" s="238">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B63" s="236">
-        <v>45307</v>
+        <f t="shared" si="10"/>
+        <v>45306</v>
       </c>
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
       <c r="E63" s="34"/>
       <c r="F63" s="235"/>
       <c r="G63" s="238">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H63" s="238">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -11428,11 +11457,11 @@
       <c r="F65" s="235"/>
       <c r="G65" s="235">
         <f>SUM(G5:G64)</f>
-        <v>22604</v>
+        <v>23558</v>
       </c>
       <c r="H65" s="235">
         <f>SUM(H5:H64)</f>
-        <v>217140</v>
+        <v>226203</v>
       </c>
     </row>
   </sheetData>

--- a/الأنتاج اليومي 2023.xlsx
+++ b/الأنتاج اليومي 2023.xlsx
@@ -9612,10 +9612,10 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="L3" s="260">
         <f>(L22-L9)/1000</f>
-        <v>97.317999999999998</v>
+        <v>115.61499999999999</v>
       </c>
       <c r="M3" s="260">
         <f>(M22-M9)/1000</f>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="L4" s="257">
         <f>L22-L9</f>
-        <v>97318</v>
+        <v>115615</v>
       </c>
       <c r="M4" s="235">
         <f>M22-M9</f>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="L5" s="257">
         <f>L4/L2</f>
-        <v>10244</v>
+        <v>12170</v>
       </c>
       <c r="M5" s="235">
         <f>M4/M2</f>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="L22" s="235">
         <f>SUMIF(F5:F64,L21,H5:H64)</f>
-        <v>173983</v>
+        <v>192280</v>
       </c>
       <c r="M22" s="235">
         <f>SUMIF(F5:F64,M21,H5:H64)</f>
@@ -10485,7 +10485,7 @@
       </c>
       <c r="L23" s="235">
         <f>L22/L21</f>
-        <v>18314</v>
+        <v>20240</v>
       </c>
       <c r="M23" s="235">
         <f>M22/M21</f>
@@ -10955,17 +10955,23 @@
         <f>B40+1</f>
         <v>45284</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="C41" s="34">
+        <v>56</v>
+      </c>
+      <c r="D41" s="34">
+        <v>18</v>
+      </c>
       <c r="E41" s="34"/>
-      <c r="F41" s="235"/>
+      <c r="F41" s="235">
+        <v>9.5</v>
+      </c>
       <c r="G41" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="H41" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9576</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -10976,17 +10982,23 @@
         <f t="shared" ref="B42:B63" si="10">B41+1</f>
         <v>45285</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
+      <c r="C42" s="34">
+        <v>51</v>
+      </c>
+      <c r="D42" s="34">
+        <v>18</v>
+      </c>
       <c r="E42" s="34"/>
-      <c r="F42" s="235"/>
+      <c r="F42" s="235">
+        <v>9.5</v>
+      </c>
       <c r="G42" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>918</v>
       </c>
       <c r="H42" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8721</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -11457,11 +11469,11 @@
       <c r="F65" s="235"/>
       <c r="G65" s="235">
         <f>SUM(G5:G64)</f>
-        <v>23558</v>
+        <v>25484</v>
       </c>
       <c r="H65" s="235">
         <f>SUM(H5:H64)</f>
-        <v>226203</v>
+        <v>244500</v>
       </c>
     </row>
   </sheetData>

--- a/الأنتاج اليومي 2023.xlsx
+++ b/الأنتاج اليومي 2023.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="نوفمبر" sheetId="2" r:id="rId1"/>
-    <sheet name="يناير" sheetId="4" r:id="rId2"/>
+    <sheet name="الانتاج " sheetId="4" r:id="rId2"/>
     <sheet name="فرزة" sheetId="5" r:id="rId3"/>
     <sheet name="مارس" sheetId="6" r:id="rId4"/>
     <sheet name="حاويه 1" sheetId="8" r:id="rId5"/>
@@ -9612,10 +9612,10 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="L3" s="260">
         <f>(L22-L9)/1000</f>
-        <v>115.61499999999999</v>
+        <v>134.25399999999999</v>
       </c>
       <c r="M3" s="260">
         <f>(M22-M9)/1000</f>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="L4" s="257">
         <f>L22-L9</f>
-        <v>115615</v>
+        <v>134254</v>
       </c>
       <c r="M4" s="235">
         <f>M22-M9</f>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="L5" s="257">
         <f>L4/L2</f>
-        <v>12170</v>
+        <v>14132</v>
       </c>
       <c r="M5" s="235">
         <f>M4/M2</f>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="L22" s="235">
         <f>SUMIF(F5:F64,L21,H5:H64)</f>
-        <v>192280</v>
+        <v>210919</v>
       </c>
       <c r="M22" s="235">
         <f>SUMIF(F5:F64,M21,H5:H64)</f>
@@ -10485,7 +10485,7 @@
       </c>
       <c r="L23" s="235">
         <f>L22/L21</f>
-        <v>20240</v>
+        <v>22202</v>
       </c>
       <c r="M23" s="235">
         <f>M22/M21</f>
@@ -11009,17 +11009,23 @@
         <f t="shared" si="10"/>
         <v>45286</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
+      <c r="C43" s="34">
+        <v>53</v>
+      </c>
+      <c r="D43" s="34">
+        <v>18</v>
+      </c>
       <c r="E43" s="34"/>
-      <c r="F43" s="235"/>
+      <c r="F43" s="235">
+        <v>9.5</v>
+      </c>
       <c r="G43" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="H43" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9063</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -11030,17 +11036,23 @@
         <f t="shared" si="10"/>
         <v>45287</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
+      <c r="C44" s="34">
+        <v>56</v>
+      </c>
+      <c r="D44" s="34">
+        <v>18</v>
+      </c>
       <c r="E44" s="34"/>
-      <c r="F44" s="235"/>
+      <c r="F44" s="235">
+        <v>9.5</v>
+      </c>
       <c r="G44" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="H44" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9576</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -11469,11 +11481,11 @@
       <c r="F65" s="235"/>
       <c r="G65" s="235">
         <f>SUM(G5:G64)</f>
-        <v>25484</v>
+        <v>27446</v>
       </c>
       <c r="H65" s="235">
         <f>SUM(H5:H64)</f>
-        <v>244500</v>
+        <v>263139</v>
       </c>
     </row>
   </sheetData>

--- a/الأنتاج اليومي 2023.xlsx
+++ b/الأنتاج اليومي 2023.xlsx
@@ -9612,10 +9612,10 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9704,23 +9704,23 @@
         <v>127</v>
       </c>
       <c r="K3" s="260">
-        <f>(K22-K9)/1000</f>
+        <f>(K31-K9)/1000</f>
         <v>0</v>
       </c>
       <c r="L3" s="260">
-        <f>(L22-L9)/1000</f>
-        <v>134.25399999999999</v>
+        <f>(L31-L9)/1000</f>
+        <v>128.02199999999999</v>
       </c>
       <c r="M3" s="260">
-        <f>(M22-M9)/1000</f>
+        <f>(M31-M9)/1000</f>
         <v>0.22</v>
       </c>
       <c r="N3" s="260">
-        <f>(N22-N9)/1000</f>
+        <f>(N31-N9)/1000</f>
         <v>0</v>
       </c>
       <c r="O3" s="260">
-        <f>(O22-O9)/1000</f>
+        <f>(O31-O9)/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -9754,23 +9754,23 @@
         <v>109</v>
       </c>
       <c r="K4" s="257">
-        <f>K22-K9</f>
+        <f>K31-K9</f>
         <v>0</v>
       </c>
       <c r="L4" s="257">
-        <f>L22-L9</f>
-        <v>134254</v>
+        <f>L31-L9</f>
+        <v>128022</v>
       </c>
       <c r="M4" s="235">
-        <f>M22-M9</f>
+        <f>M31-M9</f>
         <v>220</v>
       </c>
       <c r="N4" s="235">
-        <f>N22-N9</f>
+        <f>N31-N9</f>
         <v>0</v>
       </c>
       <c r="O4" s="235">
-        <f>O22-O9</f>
+        <f>O31-O9</f>
         <v>0</v>
       </c>
     </row>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="L5" s="257">
         <f>L4/L2</f>
-        <v>14132</v>
+        <v>13476</v>
       </c>
       <c r="M5" s="235">
         <f>M4/M2</f>
@@ -9955,23 +9955,23 @@
         <v>19</v>
       </c>
       <c r="K9" s="259">
-        <f>SUM(K10:K17)</f>
+        <f>SUM(K10:K26)</f>
         <v>52000</v>
       </c>
       <c r="L9" s="259">
-        <f>SUM(L10:L17)</f>
-        <v>76665</v>
+        <f>SUM(L10:L26)</f>
+        <v>102220</v>
       </c>
       <c r="M9" s="259">
-        <f>SUM(M10:M17)</f>
+        <f>SUM(M10:M26)</f>
         <v>0</v>
       </c>
       <c r="N9" s="259">
-        <f>SUM(N10:N17)</f>
+        <f>SUM(N10:N26)</f>
         <v>0</v>
       </c>
       <c r="O9" s="259">
-        <f>SUM(O10:O17)</f>
+        <f>SUM(O10:O26)</f>
         <v>0</v>
       </c>
     </row>
@@ -10116,7 +10116,9 @@
         <v>870</v>
       </c>
       <c r="I13" s="244"/>
-      <c r="J13" s="238"/>
+      <c r="J13" s="50">
+        <v>45272</v>
+      </c>
       <c r="K13" s="238"/>
       <c r="L13" s="257">
         <v>25555</v>
@@ -10151,7 +10153,9 @@
         <v>513</v>
       </c>
       <c r="I14" s="244"/>
-      <c r="J14" s="238"/>
+      <c r="J14" s="50">
+        <v>45275</v>
+      </c>
       <c r="K14" s="238"/>
       <c r="L14" s="257">
         <v>25555</v>
@@ -10186,9 +10190,13 @@
         <v>4788</v>
       </c>
       <c r="I15" s="244"/>
-      <c r="J15" s="238"/>
+      <c r="J15" s="50">
+        <v>45289</v>
+      </c>
       <c r="K15" s="238"/>
-      <c r="L15" s="257"/>
+      <c r="L15" s="257">
+        <v>25555</v>
+      </c>
       <c r="M15" s="238"/>
       <c r="N15" s="238"/>
       <c r="O15" s="238"/>
@@ -10219,7 +10227,7 @@
         <v>5301</v>
       </c>
       <c r="I16" s="244"/>
-      <c r="J16" s="238"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="238"/>
       <c r="L16" s="257"/>
       <c r="M16" s="238"/>
@@ -10252,7 +10260,7 @@
         <v>6840</v>
       </c>
       <c r="I17" s="244"/>
-      <c r="J17" s="238"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="238"/>
       <c r="L17" s="257"/>
       <c r="M17" s="238"/>
@@ -10285,12 +10293,12 @@
         <v>6840</v>
       </c>
       <c r="I18" s="244"/>
-      <c r="J18" s="244"/>
-      <c r="K18" s="244"/>
-      <c r="L18" s="244"/>
-      <c r="M18" s="244"/>
-      <c r="N18" s="244"/>
-      <c r="O18" s="244"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="238"/>
+      <c r="L18" s="257"/>
+      <c r="M18" s="238"/>
+      <c r="N18" s="238"/>
+      <c r="O18" s="238"/>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -10318,8 +10326,14 @@
         <v>3933</v>
       </c>
       <c r="I19" s="244"/>
-    </row>
-    <row r="20" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="J19" s="50"/>
+      <c r="K19" s="238"/>
+      <c r="L19" s="257"/>
+      <c r="M19" s="238"/>
+      <c r="N19" s="238"/>
+      <c r="O19" s="238"/>
+    </row>
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>98</v>
       </c>
@@ -10345,14 +10359,12 @@
         <v>6327</v>
       </c>
       <c r="I20" s="243"/>
-      <c r="J20" s="261" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="261"/>
-      <c r="L20" s="261"/>
-      <c r="M20" s="261"/>
-      <c r="N20" s="261"/>
-      <c r="O20" s="261"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="238"/>
+      <c r="L20" s="257"/>
+      <c r="M20" s="238"/>
+      <c r="N20" s="238"/>
+      <c r="O20" s="238"/>
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -10380,24 +10392,12 @@
         <v>6669</v>
       </c>
       <c r="I21" s="243"/>
-      <c r="J21" s="249" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="250">
-        <v>10</v>
-      </c>
-      <c r="L21" s="250">
-        <v>9.5</v>
-      </c>
-      <c r="M21" s="250">
-        <v>5</v>
-      </c>
-      <c r="N21" s="250">
-        <v>2</v>
-      </c>
-      <c r="O21" s="250">
-        <v>1</v>
-      </c>
+      <c r="J21" s="50"/>
+      <c r="K21" s="238"/>
+      <c r="L21" s="257"/>
+      <c r="M21" s="238"/>
+      <c r="N21" s="238"/>
+      <c r="O21" s="238"/>
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -10424,29 +10424,12 @@
         <f t="shared" si="3"/>
         <v>5985</v>
       </c>
-      <c r="J22" s="249" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="235">
-        <f>SUMIF(F5:F64,K21,H5:H64)</f>
-        <v>52000</v>
-      </c>
-      <c r="L22" s="235">
-        <f>SUMIF(F5:F64,L21,H5:H64)</f>
-        <v>210919</v>
-      </c>
-      <c r="M22" s="235">
-        <f>SUMIF(F5:F64,M21,H5:H64)</f>
-        <v>220</v>
-      </c>
-      <c r="N22" s="235">
-        <f>SUMIF(F5:F64,N21,H5:H64)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="235">
-        <f>SUMIF(F5:F64,O21,H5:H64)</f>
-        <v>0</v>
-      </c>
+      <c r="J22" s="50"/>
+      <c r="K22" s="238"/>
+      <c r="L22" s="257"/>
+      <c r="M22" s="238"/>
+      <c r="N22" s="238"/>
+      <c r="O22" s="238"/>
     </row>
     <row r="23" spans="1:15" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -10476,29 +10459,12 @@
         <v>4351</v>
       </c>
       <c r="I23" s="8"/>
-      <c r="J23" s="250" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="235">
-        <f>K22/K21</f>
-        <v>5200</v>
-      </c>
-      <c r="L23" s="235">
-        <f>L22/L21</f>
-        <v>22202</v>
-      </c>
-      <c r="M23" s="235">
-        <f>M22/M21</f>
-        <v>44</v>
-      </c>
-      <c r="N23" s="235">
-        <f>N22/N21</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="235">
-        <f>O22/O21</f>
-        <v>0</v>
-      </c>
+      <c r="J23" s="50"/>
+      <c r="K23" s="238"/>
+      <c r="L23" s="257"/>
+      <c r="M23" s="238"/>
+      <c r="N23" s="238"/>
+      <c r="O23" s="238"/>
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -10525,6 +10491,12 @@
         <f t="shared" si="3"/>
         <v>7353</v>
       </c>
+      <c r="J24" s="50"/>
+      <c r="K24" s="238"/>
+      <c r="L24" s="257"/>
+      <c r="M24" s="238"/>
+      <c r="N24" s="238"/>
+      <c r="O24" s="238"/>
     </row>
     <row r="25" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -10552,6 +10524,12 @@
         <v>7353</v>
       </c>
       <c r="I25" s="245"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="238"/>
+      <c r="L25" s="257"/>
+      <c r="M25" s="238"/>
+      <c r="N25" s="238"/>
+      <c r="O25" s="238"/>
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -10578,8 +10556,14 @@
         <f t="shared" ref="H26:H33" si="5">G26*F26</f>
         <v>7524</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J26" s="50"/>
+      <c r="K26" s="238"/>
+      <c r="L26" s="257"/>
+      <c r="M26" s="238"/>
+      <c r="N26" s="238"/>
+      <c r="O26" s="238"/>
+    </row>
+    <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>55</v>
       </c>
@@ -10604,12 +10588,12 @@
         <f t="shared" si="5"/>
         <v>7524</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="J27" s="244"/>
+      <c r="K27" s="244"/>
+      <c r="L27" s="244"/>
+      <c r="M27" s="244"/>
+      <c r="N27" s="244"/>
+      <c r="O27" s="244"/>
     </row>
     <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -10637,7 +10621,7 @@
         <v>7524</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>99</v>
       </c>
@@ -10662,6 +10646,14 @@
         <f t="shared" si="5"/>
         <v>6840</v>
       </c>
+      <c r="J29" s="261" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" s="261"/>
+      <c r="L29" s="261"/>
+      <c r="M29" s="261"/>
+      <c r="N29" s="261"/>
+      <c r="O29" s="261"/>
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -10688,6 +10680,24 @@
         <f t="shared" si="5"/>
         <v>5985</v>
       </c>
+      <c r="J30" s="249" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="250">
+        <v>10</v>
+      </c>
+      <c r="L30" s="250">
+        <v>9.5</v>
+      </c>
+      <c r="M30" s="250">
+        <v>5</v>
+      </c>
+      <c r="N30" s="250">
+        <v>2</v>
+      </c>
+      <c r="O30" s="250">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -10714,6 +10724,29 @@
         <f t="shared" si="5"/>
         <v>8208</v>
       </c>
+      <c r="J31" s="249" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="235">
+        <f>SUMIF(F5:F64,K30,H5:H64)</f>
+        <v>52000</v>
+      </c>
+      <c r="L31" s="235">
+        <f>SUMIF(F5:F64,L30,H5:H64)</f>
+        <v>230242</v>
+      </c>
+      <c r="M31" s="235">
+        <f>SUMIF(F5:F64,M30,H5:H64)</f>
+        <v>220</v>
+      </c>
+      <c r="N31" s="235">
+        <f>SUMIF(F5:F64,N30,H5:H64)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="235">
+        <f>SUMIF(F5:F64,O30,H5:H64)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -10740,8 +10773,31 @@
         <f t="shared" si="5"/>
         <v>7353</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="J32" s="250" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="235">
+        <f>K31/K30</f>
+        <v>5200</v>
+      </c>
+      <c r="L32" s="235">
+        <f>L31/L30</f>
+        <v>24236</v>
+      </c>
+      <c r="M32" s="235">
+        <f>M31/M30</f>
+        <v>44</v>
+      </c>
+      <c r="N32" s="235">
+        <f>N31/N30</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="235">
+        <f>O31/O30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>98</v>
       </c>
@@ -10767,7 +10823,7 @@
         <v>7353</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
@@ -10793,7 +10849,7 @@
         <v>7353</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>97</v>
       </c>
@@ -10819,7 +10875,7 @@
         <v>8379</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
@@ -10844,8 +10900,14 @@
         <f t="shared" si="7"/>
         <v>8208</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
@@ -10871,7 +10933,7 @@
         <v>8037</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
@@ -10897,7 +10959,7 @@
         <v>8379</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
@@ -10921,7 +10983,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -10947,7 +11009,7 @@
         <v>9063</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>98</v>
       </c>
@@ -10974,7 +11036,7 @@
         <v>9576</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>55</v>
       </c>
@@ -11001,7 +11063,7 @@
         <v>8721</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>97</v>
       </c>
@@ -11028,7 +11090,7 @@
         <v>9063</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>99</v>
       </c>
@@ -11055,7 +11117,7 @@
         <v>9576</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
@@ -11063,20 +11125,26 @@
         <f t="shared" si="10"/>
         <v>45288</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
+      <c r="C45" s="34">
+        <v>56</v>
+      </c>
+      <c r="D45" s="34">
+        <v>18</v>
+      </c>
       <c r="E45" s="34"/>
-      <c r="F45" s="235"/>
+      <c r="F45" s="235">
+        <v>9.5</v>
+      </c>
       <c r="G45" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="H45" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+        <v>9576</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>31</v>
       </c>
@@ -11084,20 +11152,26 @@
         <f t="shared" si="10"/>
         <v>45289</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
+      <c r="C46" s="34">
+        <v>57</v>
+      </c>
+      <c r="D46" s="34">
+        <v>18</v>
+      </c>
       <c r="E46" s="34"/>
-      <c r="F46" s="235"/>
+      <c r="F46" s="235">
+        <v>9.5</v>
+      </c>
       <c r="G46" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="H46" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+        <v>9747</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>8</v>
       </c>
@@ -11118,7 +11192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>98</v>
       </c>
@@ -11481,16 +11555,16 @@
       <c r="F65" s="235"/>
       <c r="G65" s="235">
         <f>SUM(G5:G64)</f>
-        <v>27446</v>
+        <v>29480</v>
       </c>
       <c r="H65" s="235">
         <f>SUM(H5:H64)</f>
-        <v>263139</v>
+        <v>282462</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J29:O29"/>
     <mergeCell ref="J1:O1"/>
     <mergeCell ref="J8:O8"/>
   </mergeCells>

--- a/الأنتاج اليومي 2023.xlsx
+++ b/الأنتاج اليومي 2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="712" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="712" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="نوفمبر" sheetId="2" r:id="rId1"/>
@@ -6439,7 +6439,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="B11:H11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9612,10 +9612,10 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="L3" s="260">
         <f>(L31-L9)/1000</f>
-        <v>128.02199999999999</v>
+        <v>70.509</v>
       </c>
       <c r="M3" s="260">
         <f>(M31-M9)/1000</f>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="L4" s="257">
         <f>L31-L9</f>
-        <v>128022</v>
+        <v>70509</v>
       </c>
       <c r="M4" s="235">
         <f>M31-M9</f>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="L5" s="257">
         <f>L4/L2</f>
-        <v>13476</v>
+        <v>7422</v>
       </c>
       <c r="M5" s="235">
         <f>M4/M2</f>
@@ -9960,7 +9960,7 @@
       </c>
       <c r="L9" s="259">
         <f>SUM(L10:L26)</f>
-        <v>102220</v>
+        <v>178885</v>
       </c>
       <c r="M9" s="259">
         <f>SUM(M10:M26)</f>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="I15" s="244"/>
       <c r="J15" s="50">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="K15" s="238"/>
       <c r="L15" s="257">
@@ -10227,9 +10227,13 @@
         <v>5301</v>
       </c>
       <c r="I16" s="244"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="50">
+        <v>45289</v>
+      </c>
       <c r="K16" s="238"/>
-      <c r="L16" s="257"/>
+      <c r="L16" s="257">
+        <v>25555</v>
+      </c>
       <c r="M16" s="238"/>
       <c r="N16" s="238"/>
       <c r="O16" s="238"/>
@@ -10260,9 +10264,13 @@
         <v>6840</v>
       </c>
       <c r="I17" s="244"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="50">
+        <v>45290</v>
+      </c>
       <c r="K17" s="238"/>
-      <c r="L17" s="257"/>
+      <c r="L17" s="257">
+        <v>25555</v>
+      </c>
       <c r="M17" s="238"/>
       <c r="N17" s="238"/>
       <c r="O17" s="238"/>
@@ -10293,9 +10301,13 @@
         <v>6840</v>
       </c>
       <c r="I18" s="244"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="50">
+        <v>45290</v>
+      </c>
       <c r="K18" s="238"/>
-      <c r="L18" s="257"/>
+      <c r="L18" s="257">
+        <v>25555</v>
+      </c>
       <c r="M18" s="238"/>
       <c r="N18" s="238"/>
       <c r="O18" s="238"/>
@@ -10733,7 +10745,7 @@
       </c>
       <c r="L31" s="235">
         <f>SUMIF(F5:F64,L30,H5:H64)</f>
-        <v>230242</v>
+        <v>249394</v>
       </c>
       <c r="M31" s="235">
         <f>SUMIF(F5:F64,M30,H5:H64)</f>
@@ -10782,7 +10794,7 @@
       </c>
       <c r="L32" s="235">
         <f>L31/L30</f>
-        <v>24236</v>
+        <v>26252</v>
       </c>
       <c r="M32" s="235">
         <f>M31/M30</f>
@@ -11179,17 +11191,23 @@
         <f t="shared" si="10"/>
         <v>45290</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="C47" s="34">
+        <v>56</v>
+      </c>
+      <c r="D47" s="34">
+        <v>18</v>
+      </c>
       <c r="E47" s="34"/>
-      <c r="F47" s="235"/>
+      <c r="F47" s="235">
+        <v>9.5</v>
+      </c>
       <c r="G47" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="H47" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9576</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -11200,17 +11218,23 @@
         <f t="shared" si="10"/>
         <v>45291</v>
       </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
+      <c r="C48" s="34">
+        <v>56</v>
+      </c>
+      <c r="D48" s="34">
+        <v>18</v>
+      </c>
       <c r="E48" s="34"/>
-      <c r="F48" s="235"/>
+      <c r="F48" s="235">
+        <v>9.5</v>
+      </c>
       <c r="G48" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="H48" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9576</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -11555,11 +11579,11 @@
       <c r="F65" s="235"/>
       <c r="G65" s="235">
         <f>SUM(G5:G64)</f>
-        <v>29480</v>
+        <v>31496</v>
       </c>
       <c r="H65" s="235">
         <f>SUM(H5:H64)</f>
-        <v>282462</v>
+        <v>301614</v>
       </c>
     </row>
   </sheetData>

--- a/الأنتاج اليومي 2023.xlsx
+++ b/الأنتاج اليومي 2023.xlsx
@@ -1156,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1705,6 +1705,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9612,10 +9615,10 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9705,11 +9708,11 @@
       </c>
       <c r="K3" s="260">
         <f>(K31-K9)/1000</f>
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="L3" s="260">
         <f>(L31-L9)/1000</f>
-        <v>70.509</v>
+        <v>26.695</v>
       </c>
       <c r="M3" s="260">
         <f>(M31-M9)/1000</f>
@@ -9755,11 +9758,11 @@
       </c>
       <c r="K4" s="257">
         <f>K31-K9</f>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="L4" s="257">
         <f>L31-L9</f>
-        <v>70509</v>
+        <v>26695</v>
       </c>
       <c r="M4" s="235">
         <f>M31-M9</f>
@@ -9804,11 +9807,11 @@
       </c>
       <c r="K5" s="235">
         <f>K4/K2</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L5" s="257">
         <f>L4/L2</f>
-        <v>7422</v>
+        <v>2810</v>
       </c>
       <c r="M5" s="235">
         <f>M4/M2</f>
@@ -9960,7 +9963,7 @@
       </c>
       <c r="L9" s="259">
         <f>SUM(L10:L26)</f>
-        <v>178885</v>
+        <v>229995</v>
       </c>
       <c r="M9" s="259">
         <f>SUM(M10:M26)</f>
@@ -10338,9 +10341,13 @@
         <v>3933</v>
       </c>
       <c r="I19" s="244"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="50">
+        <v>45292</v>
+      </c>
       <c r="K19" s="238"/>
-      <c r="L19" s="257"/>
+      <c r="L19" s="257">
+        <v>25555</v>
+      </c>
       <c r="M19" s="238"/>
       <c r="N19" s="238"/>
       <c r="O19" s="238"/>
@@ -10371,9 +10378,13 @@
         <v>6327</v>
       </c>
       <c r="I20" s="243"/>
-      <c r="J20" s="50"/>
+      <c r="J20" s="50">
+        <v>45292</v>
+      </c>
       <c r="K20" s="238"/>
-      <c r="L20" s="257"/>
+      <c r="L20" s="257">
+        <v>25555</v>
+      </c>
       <c r="M20" s="238"/>
       <c r="N20" s="238"/>
       <c r="O20" s="238"/>
@@ -10457,18 +10468,18 @@
         <v>18</v>
       </c>
       <c r="E23" s="34">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F23" s="235">
         <v>9.5</v>
       </c>
       <c r="G23" s="238">
         <f t="shared" si="2"/>
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H23" s="238">
         <f t="shared" si="3"/>
-        <v>4351</v>
+        <v>4294</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="50"/>
@@ -10550,7 +10561,7 @@
       <c r="B26" s="236">
         <v>45270</v>
       </c>
-      <c r="C26" s="258">
+      <c r="C26" s="262">
         <v>44</v>
       </c>
       <c r="D26" s="34">
@@ -10583,7 +10594,7 @@
         <v>45271</v>
       </c>
       <c r="C27" s="258">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D27" s="34">
         <v>18</v>
@@ -10594,11 +10605,11 @@
       </c>
       <c r="G27" s="238">
         <f t="shared" si="4"/>
-        <v>792</v>
+        <v>540</v>
       </c>
       <c r="H27" s="238">
         <f t="shared" si="5"/>
-        <v>7524</v>
+        <v>5130</v>
       </c>
       <c r="J27" s="244"/>
       <c r="K27" s="244"/>
@@ -10741,11 +10752,11 @@
       </c>
       <c r="K31" s="235">
         <f>SUMIF(F5:F64,K30,H5:H64)</f>
-        <v>52000</v>
+        <v>52540</v>
       </c>
       <c r="L31" s="235">
         <f>SUMIF(F5:F64,L30,H5:H64)</f>
-        <v>249394</v>
+        <v>256690</v>
       </c>
       <c r="M31" s="235">
         <f>SUMIF(F5:F64,M30,H5:H64)</f>
@@ -10790,11 +10801,11 @@
       </c>
       <c r="K32" s="235">
         <f>K31/K30</f>
-        <v>5200</v>
+        <v>5254</v>
       </c>
       <c r="L32" s="235">
         <f>L31/L30</f>
-        <v>26252</v>
+        <v>27020</v>
       </c>
       <c r="M32" s="235">
         <f>M31/M30</f>
@@ -11245,38 +11256,50 @@
         <f t="shared" si="10"/>
         <v>45292</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
+      <c r="C49" s="34">
+        <v>57</v>
+      </c>
+      <c r="D49" s="34">
+        <v>18</v>
+      </c>
       <c r="E49" s="34"/>
-      <c r="F49" s="235"/>
+      <c r="F49" s="235">
+        <v>9.5</v>
+      </c>
       <c r="G49" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="H49" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9747</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B50" s="236">
         <f t="shared" si="10"/>
         <v>45293</v>
       </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
+      <c r="C50" s="34">
+        <v>3</v>
+      </c>
+      <c r="D50" s="34">
+        <v>18</v>
+      </c>
       <c r="E50" s="34"/>
-      <c r="F50" s="235"/>
+      <c r="F50" s="235">
+        <v>10</v>
+      </c>
       <c r="G50" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H50" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>540</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -11579,11 +11602,11 @@
       <c r="F65" s="235"/>
       <c r="G65" s="235">
         <f>SUM(G5:G64)</f>
-        <v>31496</v>
+        <v>32318</v>
       </c>
       <c r="H65" s="235">
         <f>SUM(H5:H64)</f>
-        <v>301614</v>
+        <v>309450</v>
       </c>
     </row>
   </sheetData>

--- a/الأنتاج اليومي 2023.xlsx
+++ b/الأنتاج اليومي 2023.xlsx
@@ -1704,10 +1704,10 @@
     <xf numFmtId="165" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9615,15 +9615,15 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" style="8" customWidth="1"/>
     <col min="3" max="3" width="8.875" style="8" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="8" bestFit="1" customWidth="1"/>
@@ -9653,14 +9653,14 @@
       <c r="F1" s="23"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
-      <c r="J1" s="261" t="s">
+      <c r="J1" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="261"/>
-      <c r="O1" s="261"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
     </row>
     <row r="2" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="K3" s="260">
         <f>(K31-K9)/1000</f>
-        <v>0.54</v>
+        <v>48.42</v>
       </c>
       <c r="L3" s="260">
         <f>(L31-L9)/1000</f>
@@ -9758,7 +9758,7 @@
       </c>
       <c r="K4" s="257">
         <f>K31-K9</f>
-        <v>540</v>
+        <v>48420</v>
       </c>
       <c r="L4" s="257">
         <f>L31-L9</f>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="K5" s="235">
         <f>K4/K2</f>
-        <v>54</v>
+        <v>4842</v>
       </c>
       <c r="L5" s="257">
         <f>L4/L2</f>
@@ -9919,14 +9919,14 @@
         <v>4700</v>
       </c>
       <c r="I8" s="244"/>
-      <c r="J8" s="261" t="s">
+      <c r="J8" s="262" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="261"/>
-      <c r="L8" s="261"/>
-      <c r="M8" s="261"/>
-      <c r="N8" s="261"/>
-      <c r="O8" s="261"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="262"/>
+      <c r="M8" s="262"/>
+      <c r="N8" s="262"/>
+      <c r="O8" s="262"/>
     </row>
     <row r="9" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -10561,7 +10561,7 @@
       <c r="B26" s="236">
         <v>45270</v>
       </c>
-      <c r="C26" s="262">
+      <c r="C26" s="261">
         <v>44</v>
       </c>
       <c r="D26" s="34">
@@ -10669,14 +10669,14 @@
         <f t="shared" si="5"/>
         <v>6840</v>
       </c>
-      <c r="J29" s="261" t="s">
+      <c r="J29" s="262" t="s">
         <v>106</v>
       </c>
-      <c r="K29" s="261"/>
-      <c r="L29" s="261"/>
-      <c r="M29" s="261"/>
-      <c r="N29" s="261"/>
-      <c r="O29" s="261"/>
+      <c r="K29" s="262"/>
+      <c r="L29" s="262"/>
+      <c r="M29" s="262"/>
+      <c r="N29" s="262"/>
+      <c r="O29" s="262"/>
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="K31" s="235">
         <f>SUMIF(F5:F64,K30,H5:H64)</f>
-        <v>52540</v>
+        <v>100420</v>
       </c>
       <c r="L31" s="235">
         <f>SUMIF(F5:F64,L30,H5:H64)</f>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="K32" s="235">
         <f>K31/K30</f>
-        <v>5254</v>
+        <v>10042</v>
       </c>
       <c r="L32" s="235">
         <f>L31/L30</f>
@@ -11280,8 +11280,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="236">
-        <f t="shared" si="10"/>
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="C50" s="34">
         <v>3</v>
@@ -11304,116 +11303,146 @@
     </row>
     <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51" s="236">
         <f t="shared" si="10"/>
-        <v>45294</v>
-      </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
+        <v>45293</v>
+      </c>
+      <c r="C51" s="34">
+        <v>53</v>
+      </c>
+      <c r="D51" s="34">
+        <v>18</v>
+      </c>
       <c r="E51" s="34"/>
-      <c r="F51" s="235"/>
+      <c r="F51" s="235">
+        <v>10</v>
+      </c>
       <c r="G51" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="H51" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9540</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B52" s="236">
         <f t="shared" si="10"/>
-        <v>45295</v>
-      </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
+        <v>45294</v>
+      </c>
+      <c r="C52" s="34">
+        <v>60</v>
+      </c>
+      <c r="D52" s="34">
+        <v>18</v>
+      </c>
       <c r="E52" s="34"/>
-      <c r="F52" s="235"/>
+      <c r="F52" s="235">
+        <v>10</v>
+      </c>
       <c r="G52" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="H52" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B53" s="236">
         <f t="shared" si="10"/>
-        <v>45296</v>
-      </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
+        <v>45295</v>
+      </c>
+      <c r="C53" s="34">
+        <v>50</v>
+      </c>
+      <c r="D53" s="34">
+        <v>18</v>
+      </c>
       <c r="E53" s="34"/>
-      <c r="F53" s="235"/>
+      <c r="F53" s="235">
+        <v>10</v>
+      </c>
       <c r="G53" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="H53" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B54" s="236">
         <f t="shared" si="10"/>
-        <v>45297</v>
-      </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
+        <v>45296</v>
+      </c>
+      <c r="C54" s="34">
+        <v>53</v>
+      </c>
+      <c r="D54" s="34">
+        <v>18</v>
+      </c>
       <c r="E54" s="34"/>
-      <c r="F54" s="235"/>
+      <c r="F54" s="235">
+        <v>10</v>
+      </c>
       <c r="G54" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="H54" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9540</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B55" s="236">
         <f t="shared" si="10"/>
-        <v>45298</v>
-      </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
+        <v>45297</v>
+      </c>
+      <c r="C55" s="34">
+        <v>50</v>
+      </c>
+      <c r="D55" s="34">
+        <v>18</v>
+      </c>
       <c r="E55" s="34"/>
-      <c r="F55" s="235"/>
+      <c r="F55" s="235">
+        <v>10</v>
+      </c>
       <c r="G55" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="H55" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B56" s="236">
         <f t="shared" si="10"/>
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
@@ -11430,11 +11459,11 @@
     </row>
     <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B57" s="236">
         <f t="shared" si="10"/>
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
@@ -11455,7 +11484,7 @@
       </c>
       <c r="B58" s="236">
         <f t="shared" si="10"/>
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
@@ -11476,7 +11505,7 @@
       </c>
       <c r="B59" s="236">
         <f t="shared" si="10"/>
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
@@ -11497,7 +11526,7 @@
       </c>
       <c r="B60" s="236">
         <f t="shared" si="10"/>
-        <v>45303</v>
+        <v>45302</v>
       </c>
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
@@ -11518,7 +11547,7 @@
       </c>
       <c r="B61" s="236">
         <f t="shared" si="10"/>
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
@@ -11539,7 +11568,7 @@
       </c>
       <c r="B62" s="236">
         <f t="shared" si="10"/>
-        <v>45305</v>
+        <v>45304</v>
       </c>
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
@@ -11560,7 +11589,7 @@
       </c>
       <c r="B63" s="236">
         <f t="shared" si="10"/>
-        <v>45306</v>
+        <v>45305</v>
       </c>
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
@@ -11602,11 +11631,11 @@
       <c r="F65" s="235"/>
       <c r="G65" s="235">
         <f>SUM(G5:G64)</f>
-        <v>32318</v>
+        <v>37106</v>
       </c>
       <c r="H65" s="235">
         <f>SUM(H5:H64)</f>
-        <v>309450</v>
+        <v>357330</v>
       </c>
     </row>
   </sheetData>

--- a/الأنتاج اليومي 2023.xlsx
+++ b/الأنتاج اليومي 2023.xlsx
@@ -9615,10 +9615,10 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="K3" s="260">
         <f>(K31-K9)/1000</f>
-        <v>48.42</v>
+        <v>69.3</v>
       </c>
       <c r="L3" s="260">
         <f>(L31-L9)/1000</f>
@@ -9758,7 +9758,7 @@
       </c>
       <c r="K4" s="257">
         <f>K31-K9</f>
-        <v>48420</v>
+        <v>69300</v>
       </c>
       <c r="L4" s="257">
         <f>L31-L9</f>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="K5" s="235">
         <f>K4/K2</f>
-        <v>4842</v>
+        <v>6930</v>
       </c>
       <c r="L5" s="257">
         <f>L4/L2</f>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="K31" s="235">
         <f>SUMIF(F5:F64,K30,H5:H64)</f>
-        <v>100420</v>
+        <v>121300</v>
       </c>
       <c r="L31" s="235">
         <f>SUMIF(F5:F64,L30,H5:H64)</f>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="K32" s="235">
         <f>K31/K30</f>
-        <v>10042</v>
+        <v>12130</v>
       </c>
       <c r="L32" s="235">
         <f>L31/L30</f>
@@ -11444,17 +11444,23 @@
         <f t="shared" si="10"/>
         <v>45298</v>
       </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
+      <c r="C56" s="34">
+        <v>57</v>
+      </c>
+      <c r="D56" s="34">
+        <v>18</v>
+      </c>
       <c r="E56" s="34"/>
-      <c r="F56" s="235"/>
+      <c r="F56" s="235">
+        <v>10</v>
+      </c>
       <c r="G56" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="H56" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10260</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -11465,17 +11471,23 @@
         <f t="shared" si="10"/>
         <v>45299</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
+      <c r="C57" s="34">
+        <v>59</v>
+      </c>
+      <c r="D57" s="34">
+        <v>18</v>
+      </c>
       <c r="E57" s="34"/>
-      <c r="F57" s="235"/>
+      <c r="F57" s="235">
+        <v>10</v>
+      </c>
       <c r="G57" s="238">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1062</v>
       </c>
       <c r="H57" s="238">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -11631,11 +11643,11 @@
       <c r="F65" s="235"/>
       <c r="G65" s="235">
         <f>SUM(G5:G64)</f>
-        <v>37106</v>
+        <v>39194</v>
       </c>
       <c r="H65" s="235">
         <f>SUM(H5:H64)</f>
-        <v>357330</v>
+        <v>378210</v>
       </c>
     </row>
   </sheetData>

--- a/الأنتاج اليومي 2023.xlsx
+++ b/الأنتاج اليومي 2023.xlsx
@@ -32,8 +32,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C63" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+كمالة الحاوية
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="128">
   <si>
     <t>اليوم</t>
   </si>
@@ -427,7 +460,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,6 +875,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="6">
@@ -9608,17 +9652,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9708,11 +9752,11 @@
       </c>
       <c r="K3" s="260">
         <f>(K31-K9)/1000</f>
-        <v>69.3</v>
+        <v>79.56</v>
       </c>
       <c r="L3" s="260">
         <f>(L31-L9)/1000</f>
-        <v>26.695</v>
+        <v>55.67</v>
       </c>
       <c r="M3" s="260">
         <f>(M31-M9)/1000</f>
@@ -9758,11 +9802,11 @@
       </c>
       <c r="K4" s="257">
         <f>K31-K9</f>
-        <v>69300</v>
+        <v>79560</v>
       </c>
       <c r="L4" s="257">
         <f>L31-L9</f>
-        <v>26695</v>
+        <v>55670</v>
       </c>
       <c r="M4" s="235">
         <f>M31-M9</f>
@@ -9807,11 +9851,11 @@
       </c>
       <c r="K5" s="235">
         <f>K4/K2</f>
-        <v>6930</v>
+        <v>7956</v>
       </c>
       <c r="L5" s="257">
         <f>L4/L2</f>
-        <v>2810</v>
+        <v>5860</v>
       </c>
       <c r="M5" s="235">
         <f>M4/M2</f>
@@ -10751,23 +10795,23 @@
         <v>107</v>
       </c>
       <c r="K31" s="235">
-        <f>SUMIF(F5:F64,K30,H5:H64)</f>
-        <v>121300</v>
+        <f>SUMIF(F5:F70,K30,H5:H70)</f>
+        <v>131560</v>
       </c>
       <c r="L31" s="235">
-        <f>SUMIF(F5:F64,L30,H5:H64)</f>
-        <v>256690</v>
+        <f>SUMIF(F5:F70,L30,H5:H70)</f>
+        <v>285665</v>
       </c>
       <c r="M31" s="235">
-        <f>SUMIF(F5:F64,M30,H5:H64)</f>
+        <f>SUMIF(F5:F70,M30,H5:H70)</f>
         <v>220</v>
       </c>
       <c r="N31" s="235">
-        <f>SUMIF(F5:F64,N30,H5:H64)</f>
+        <f>SUMIF(F5:F70,N30,H5:H70)</f>
         <v>0</v>
       </c>
       <c r="O31" s="235">
-        <f>SUMIF(F5:F64,O30,H5:H64)</f>
+        <f>SUMIF(F5:F70,O30,H5:H70)</f>
         <v>0</v>
       </c>
     </row>
@@ -10801,11 +10845,11 @@
       </c>
       <c r="K32" s="235">
         <f>K31/K30</f>
-        <v>12130</v>
+        <v>13156</v>
       </c>
       <c r="L32" s="235">
         <f>L31/L30</f>
-        <v>27020</v>
+        <v>30070</v>
       </c>
       <c r="M32" s="235">
         <f>M31/M30</f>
@@ -10864,11 +10908,11 @@
         <v>9.5</v>
       </c>
       <c r="G34" s="238">
-        <f t="shared" ref="G34:G64" si="6">C34*D34+E34</f>
+        <f t="shared" ref="G34:G70" si="6">C34*D34+E34</f>
         <v>774</v>
       </c>
       <c r="H34" s="238">
-        <f t="shared" ref="H34:H64" si="7">G34*F34</f>
+        <f t="shared" ref="H34:H70" si="7">G34*F34</f>
         <v>7353</v>
       </c>
     </row>
@@ -11064,7 +11108,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="236">
-        <f t="shared" ref="B42:B63" si="10">B41+1</f>
+        <f t="shared" ref="B42:B61" si="10">B41+1</f>
         <v>45285</v>
       </c>
       <c r="C42" s="34">
@@ -11498,17 +11542,23 @@
         <f t="shared" si="10"/>
         <v>45300</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
+      <c r="C58" s="34">
+        <v>57</v>
+      </c>
+      <c r="D58" s="34">
+        <v>18</v>
+      </c>
       <c r="E58" s="34"/>
-      <c r="F58" s="235"/>
+      <c r="F58" s="235">
+        <v>10</v>
+      </c>
       <c r="G58" s="238">
         <f t="shared" ref="G58" si="11">C58*D58+E58</f>
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="H58" s="238">
         <f t="shared" ref="H58" si="12">G58*F58</f>
-        <v>0</v>
+        <v>10260</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -11519,17 +11569,23 @@
         <f t="shared" si="10"/>
         <v>45301</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
+      <c r="C59" s="34">
+        <v>41</v>
+      </c>
+      <c r="D59" s="34">
+        <v>18</v>
+      </c>
       <c r="E59" s="34"/>
-      <c r="F59" s="235"/>
+      <c r="F59" s="235">
+        <v>9.5</v>
+      </c>
       <c r="G59" s="238">
-        <f t="shared" ref="G59:G63" si="13">C59*D59+E59</f>
-        <v>0</v>
+        <f t="shared" ref="G59:G69" si="13">C59*D59+E59</f>
+        <v>738</v>
       </c>
       <c r="H59" s="238">
-        <f t="shared" ref="H59:H63" si="14">G59*F59</f>
-        <v>0</v>
+        <f t="shared" ref="H59:H69" si="14">G59*F59</f>
+        <v>7011</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -11540,17 +11596,23 @@
         <f t="shared" si="10"/>
         <v>45302</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
+      <c r="C60" s="34">
+        <v>27</v>
+      </c>
+      <c r="D60" s="34">
+        <v>18</v>
+      </c>
       <c r="E60" s="34"/>
-      <c r="F60" s="235"/>
+      <c r="F60" s="235">
+        <v>9.5</v>
+      </c>
       <c r="G60" s="238">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="H60" s="238">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -11579,20 +11641,27 @@
         <v>98</v>
       </c>
       <c r="B62" s="236">
-        <f t="shared" si="10"/>
-        <v>45304</v>
-      </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="235"/>
+        <v>45305</v>
+      </c>
+      <c r="C62" s="34">
+        <v>31</v>
+      </c>
+      <c r="D62" s="34">
+        <v>18</v>
+      </c>
+      <c r="E62" s="34">
+        <v>8</v>
+      </c>
+      <c r="F62" s="235">
+        <v>9.5</v>
+      </c>
       <c r="G62" s="238">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="H62" s="238">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -11600,54 +11669,189 @@
         <v>55</v>
       </c>
       <c r="B63" s="236">
-        <f t="shared" si="10"/>
-        <v>45305</v>
-      </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
+        <v>45306</v>
+      </c>
+      <c r="C63" s="258"/>
+      <c r="D63" s="34">
+        <v>18</v>
+      </c>
       <c r="E63" s="34"/>
-      <c r="F63" s="235"/>
+      <c r="F63" s="235">
+        <v>9.5</v>
+      </c>
       <c r="G63" s="238">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G63:G69" si="15">C63*D63+E63</f>
         <v>0</v>
       </c>
       <c r="H63" s="238">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="H63:H69" si="16">G63*F63</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="236"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
+      <c r="A64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="236">
+        <v>45307</v>
+      </c>
+      <c r="C64" s="34">
+        <v>46</v>
+      </c>
+      <c r="D64" s="34">
+        <v>18</v>
+      </c>
       <c r="E64" s="34"/>
-      <c r="F64" s="235"/>
+      <c r="F64" s="235">
+        <v>9.5</v>
+      </c>
       <c r="G64" s="238">
+        <f t="shared" si="15"/>
+        <v>828</v>
+      </c>
+      <c r="H64" s="238">
+        <f t="shared" si="16"/>
+        <v>7866</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="236">
+        <v>45308</v>
+      </c>
+      <c r="C65" s="34">
+        <v>24</v>
+      </c>
+      <c r="D65" s="34">
+        <v>18</v>
+      </c>
+      <c r="E65" s="34"/>
+      <c r="F65" s="235">
+        <v>9.5</v>
+      </c>
+      <c r="G65" s="238">
+        <f t="shared" si="15"/>
+        <v>432</v>
+      </c>
+      <c r="H65" s="238">
+        <f t="shared" si="16"/>
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="236">
+        <v>45309</v>
+      </c>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="235"/>
+      <c r="G66" s="238">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="238">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="236">
+        <v>45310</v>
+      </c>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="235"/>
+      <c r="G67" s="238">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="238">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="236">
+        <v>45311</v>
+      </c>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="235"/>
+      <c r="G68" s="238">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="238">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="236">
+        <v>45312</v>
+      </c>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="235"/>
+      <c r="G69" s="238">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="238">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="236"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="235"/>
+      <c r="G70" s="238">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H64" s="238">
+      <c r="H70" s="238">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="239"/>
-      <c r="B65" s="251" t="s">
+    <row r="71" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="239"/>
+      <c r="B71" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="251"/>
-      <c r="D65" s="235"/>
-      <c r="E65" s="235"/>
-      <c r="F65" s="235"/>
-      <c r="G65" s="235">
-        <f>SUM(G5:G64)</f>
-        <v>39194</v>
-      </c>
-      <c r="H65" s="235">
-        <f>SUM(H5:H64)</f>
-        <v>378210</v>
+      <c r="C71" s="251"/>
+      <c r="D71" s="235"/>
+      <c r="E71" s="235"/>
+      <c r="F71" s="235"/>
+      <c r="G71" s="235">
+        <f>SUM(G5:G70)</f>
+        <v>43270</v>
+      </c>
+      <c r="H71" s="235">
+        <f>SUM(H5:H70)</f>
+        <v>417445</v>
       </c>
     </row>
   </sheetData>
@@ -11659,6 +11863,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/الأنتاج اليومي 2023.xlsx
+++ b/الأنتاج اليومي 2023.xlsx
@@ -28,6 +28,9 @@
     <sheet name="كونتر 15" sheetId="23" r:id="rId19"/>
     <sheet name="كونتر 16" sheetId="24" r:id="rId20"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId21"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -1200,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1752,6 +1755,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4401,6 +4407,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="الحاوية الاولى"/>
+      <sheetName val="الحاوية الثانية"/>
+      <sheetName val="الحاوية الثالثة"/>
+      <sheetName val="الحاوية الرابعة"/>
+      <sheetName val="الحاوية الخامسة"/>
+      <sheetName val="الحاوية السادسة"/>
+      <sheetName val="الحاوية 7"/>
+      <sheetName val="الحاوية 8"/>
+      <sheetName val="الحاوية 9"/>
+      <sheetName val="الحاوية 10"/>
+      <sheetName val="الحاوية11"/>
+      <sheetName val="الحاوية12"/>
+      <sheetName val="الحاوية13"/>
+      <sheetName val="الحاوية14"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10">
+        <row r="14">
+          <cell r="D14">
+            <v>25555</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9659,10 +9710,10 @@
   <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9752,11 +9803,11 @@
       </c>
       <c r="K3" s="260">
         <f>(K31-K9)/1000</f>
-        <v>79.56</v>
+        <v>1.56</v>
       </c>
       <c r="L3" s="260">
         <f>(L31-L9)/1000</f>
-        <v>55.67</v>
+        <v>76.665000000000006</v>
       </c>
       <c r="M3" s="260">
         <f>(M31-M9)/1000</f>
@@ -9802,11 +9853,11 @@
       </c>
       <c r="K4" s="257">
         <f>K31-K9</f>
-        <v>79560</v>
+        <v>1560</v>
       </c>
       <c r="L4" s="257">
         <f>L31-L9</f>
-        <v>55670</v>
+        <v>76665</v>
       </c>
       <c r="M4" s="235">
         <f>M31-M9</f>
@@ -9851,11 +9902,11 @@
       </c>
       <c r="K5" s="235">
         <f>K4/K2</f>
-        <v>7956</v>
+        <v>156</v>
       </c>
       <c r="L5" s="257">
         <f>L4/L2</f>
-        <v>5860</v>
+        <v>8070</v>
       </c>
       <c r="M5" s="235">
         <f>M4/M2</f>
@@ -10003,7 +10054,7 @@
       </c>
       <c r="K9" s="259">
         <f>SUM(K10:K26)</f>
-        <v>52000</v>
+        <v>130000</v>
       </c>
       <c r="L9" s="259">
         <f>SUM(L10:L26)</f>
@@ -10459,8 +10510,12 @@
         <v>6669</v>
       </c>
       <c r="I21" s="243"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="238"/>
+      <c r="J21" s="50">
+        <v>45303</v>
+      </c>
+      <c r="K21" s="238">
+        <v>26000</v>
+      </c>
       <c r="L21" s="257"/>
       <c r="M21" s="238"/>
       <c r="N21" s="238"/>
@@ -10491,14 +10546,18 @@
         <f t="shared" si="3"/>
         <v>5985</v>
       </c>
-      <c r="J22" s="50"/>
-      <c r="K22" s="238"/>
+      <c r="J22" s="50">
+        <v>45303</v>
+      </c>
+      <c r="K22" s="238">
+        <v>26000</v>
+      </c>
       <c r="L22" s="257"/>
       <c r="M22" s="238"/>
       <c r="N22" s="238"/>
       <c r="O22" s="238"/>
     </row>
-    <row r="23" spans="1:15" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>99</v>
       </c>
@@ -10526,8 +10585,12 @@
         <v>4294</v>
       </c>
       <c r="I23" s="8"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="238"/>
+      <c r="J23" s="50">
+        <v>45304</v>
+      </c>
+      <c r="K23" s="238">
+        <v>26000</v>
+      </c>
       <c r="L23" s="257"/>
       <c r="M23" s="238"/>
       <c r="N23" s="238"/>
@@ -10800,7 +10863,7 @@
       </c>
       <c r="L31" s="235">
         <f>SUMIF(F5:F70,L30,H5:H70)</f>
-        <v>285665</v>
+        <v>306660</v>
       </c>
       <c r="M31" s="235">
         <f>SUMIF(F5:F70,M30,H5:H70)</f>
@@ -10849,7 +10912,7 @@
       </c>
       <c r="L32" s="235">
         <f>L31/L30</f>
-        <v>30070</v>
+        <v>32280</v>
       </c>
       <c r="M32" s="235">
         <f>M31/M30</f>
@@ -11292,7 +11355,7 @@
         <v>9576</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
@@ -11319,7 +11382,7 @@
         <v>9747</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
@@ -11345,7 +11408,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>97</v>
       </c>
@@ -11372,7 +11435,7 @@
         <v>9540</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>99</v>
       </c>
@@ -11399,7 +11462,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>13</v>
       </c>
@@ -11426,7 +11489,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>31</v>
       </c>
@@ -11453,7 +11516,7 @@
         <v>9540</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>8</v>
       </c>
@@ -11480,7 +11543,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
@@ -11507,7 +11570,7 @@
         <v>10260</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -11534,7 +11597,7 @@
         <v>10620</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>99</v>
       </c>
@@ -11561,7 +11624,7 @@
         <v>10260</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>13</v>
       </c>
@@ -11580,15 +11643,15 @@
         <v>9.5</v>
       </c>
       <c r="G59" s="238">
-        <f t="shared" ref="G59:G69" si="13">C59*D59+E59</f>
+        <f t="shared" ref="G59:G62" si="13">C59*D59+E59</f>
         <v>738</v>
       </c>
       <c r="H59" s="238">
-        <f t="shared" ref="H59:H69" si="14">G59*F59</f>
+        <f t="shared" ref="H59:H62" si="14">G59*F59</f>
         <v>7011</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>31</v>
       </c>
@@ -11615,7 +11678,7 @@
         <v>4617</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
@@ -11636,7 +11699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>98</v>
       </c>
@@ -11664,31 +11727,39 @@
         <v>5377</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B63" s="236">
         <v>45306</v>
       </c>
-      <c r="C63" s="258"/>
+      <c r="C63" s="258">
+        <v>122</v>
+      </c>
       <c r="D63" s="34">
         <v>18</v>
       </c>
-      <c r="E63" s="34"/>
+      <c r="E63" s="34">
+        <v>14</v>
+      </c>
       <c r="F63" s="235">
         <v>9.5</v>
       </c>
       <c r="G63" s="238">
         <f t="shared" ref="G63:G69" si="15">C63*D63+E63</f>
-        <v>0</v>
+        <v>2210</v>
       </c>
       <c r="H63" s="238">
         <f t="shared" ref="H63:H69" si="16">G63*F63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+        <v>20995</v>
+      </c>
+      <c r="J63" s="263">
+        <f>[1]الحاوية11!D14*3</f>
+        <v>76665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>97</v>
       </c>
@@ -11847,11 +11918,11 @@
       <c r="F71" s="235"/>
       <c r="G71" s="235">
         <f>SUM(G5:G70)</f>
-        <v>43270</v>
+        <v>45480</v>
       </c>
       <c r="H71" s="235">
         <f>SUM(H5:H70)</f>
-        <v>417445</v>
+        <v>438440</v>
       </c>
     </row>
   </sheetData>
@@ -12141,8 +12212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/الأنتاج اليومي 2023.xlsx
+++ b/الأنتاج اليومي 2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="712" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="712" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="نوفمبر" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="129">
   <si>
     <t>اليوم</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>المتوفر بالطن</t>
+  </si>
+  <si>
+    <t>محمود عبدالله</t>
   </si>
 </sst>
 </file>
@@ -1754,10 +1757,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9709,7 +9712,7 @@
   </sheetPr>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -9748,14 +9751,14 @@
       <c r="F1" s="23"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
-      <c r="J1" s="262" t="s">
+      <c r="J1" s="263" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="262"/>
-      <c r="L1" s="262"/>
-      <c r="M1" s="262"/>
-      <c r="N1" s="262"/>
-      <c r="O1" s="262"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="263"/>
     </row>
     <row r="2" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -10014,14 +10017,14 @@
         <v>4700</v>
       </c>
       <c r="I8" s="244"/>
-      <c r="J8" s="262" t="s">
+      <c r="J8" s="263" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="262"/>
-      <c r="L8" s="262"/>
-      <c r="M8" s="262"/>
-      <c r="N8" s="262"/>
-      <c r="O8" s="262"/>
+      <c r="K8" s="263"/>
+      <c r="L8" s="263"/>
+      <c r="M8" s="263"/>
+      <c r="N8" s="263"/>
+      <c r="O8" s="263"/>
     </row>
     <row r="9" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -10776,14 +10779,14 @@
         <f t="shared" si="5"/>
         <v>6840</v>
       </c>
-      <c r="J29" s="262" t="s">
+      <c r="J29" s="263" t="s">
         <v>106</v>
       </c>
-      <c r="K29" s="262"/>
-      <c r="L29" s="262"/>
-      <c r="M29" s="262"/>
-      <c r="N29" s="262"/>
-      <c r="O29" s="262"/>
+      <c r="K29" s="263"/>
+      <c r="L29" s="263"/>
+      <c r="M29" s="263"/>
+      <c r="N29" s="263"/>
+      <c r="O29" s="263"/>
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -11754,7 +11757,7 @@
         <f t="shared" ref="H63:H69" si="16">G63*F63</f>
         <v>20995</v>
       </c>
-      <c r="J63" s="263">
+      <c r="J63" s="262">
         <f>[1]الحاوية11!D14*3</f>
         <v>76665</v>
       </c>
@@ -12212,8 +12215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12221,6 +12224,7 @@
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -12321,28 +12325,40 @@
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="235"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="235"/>
-      <c r="F7" s="235"/>
+      <c r="B7" s="235" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="50">
+        <v>45296</v>
+      </c>
+      <c r="D7" s="235">
+        <v>232</v>
+      </c>
+      <c r="E7" s="235">
+        <v>3890</v>
+      </c>
+      <c r="F7" s="235">
+        <v>11250</v>
+      </c>
       <c r="G7" s="235"/>
-      <c r="H7" s="255"/>
+      <c r="H7" s="255">
+        <v>14</v>
+      </c>
       <c r="I7" s="255">
         <f>G7*2</f>
         <v>0</v>
       </c>
       <c r="J7" s="255">
         <f>F7-E7-I7</f>
-        <v>0</v>
+        <v>7360</v>
       </c>
       <c r="K7" s="256">
         <f>J7/45</f>
-        <v>0</v>
+        <v>163.55555555555554</v>
       </c>
       <c r="L7" s="257">
         <f>J7*H7</f>
-        <v>0</v>
+        <v>103040</v>
       </c>
       <c r="M7" s="257"/>
       <c r="N7" s="256"/>

--- a/الأنتاج اليومي 2023.xlsx
+++ b/الأنتاج اليومي 2023.xlsx
@@ -4428,18 +4428,24 @@
       <sheetName val="الحاوية12"/>
       <sheetName val="الحاوية13"/>
       <sheetName val="الحاوية14"/>
+      <sheetName val="الحاوية15"/>
+      <sheetName val="الحاوية16"/>
+      <sheetName val="الحاوية17"/>
+      <sheetName val="ثروت1"/>
+      <sheetName val="ثروت2"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10">
         <row r="14">
           <cell r="D14">
@@ -4447,9 +4453,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/الأنتاج اليومي 2023.xlsx
+++ b/الأنتاج اليومي 2023.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="132">
   <si>
     <t>اليوم</t>
   </si>
@@ -434,9 +434,6 @@
     <t>اجمالي المبلغ</t>
   </si>
   <si>
-    <t>مسحوبات</t>
-  </si>
-  <si>
     <t>صافي المستحق</t>
   </si>
   <si>
@@ -456,6 +453,18 @@
   </si>
   <si>
     <t>محمود عبدالله</t>
+  </si>
+  <si>
+    <t>محمد عبدالعاطي</t>
+  </si>
+  <si>
+    <t>واصل 1</t>
+  </si>
+  <si>
+    <t>واصل2</t>
+  </si>
+  <si>
+    <t>واصل3</t>
   </si>
 </sst>
 </file>
@@ -4433,7 +4442,7 @@
       <sheetName val="الحاوية17"/>
       <sheetName val="ثروت1"/>
       <sheetName val="ثروت2"/>
-      <sheetName val="Sheet1"/>
+      <sheetName val="الحاوية 19"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -9814,7 +9823,7 @@
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
       <c r="J3" s="249" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K3" s="260">
         <f>(K31-K9)/1000</f>
@@ -12225,27 +12234,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:O9"/>
+  <dimension ref="A4:Q9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="0.25" customWidth="1"/>
+    <col min="9" max="9" width="0.25" customWidth="1"/>
     <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:17" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="252" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="253" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="253" t="s">
         <v>19</v>
@@ -12263,7 +12275,7 @@
         <v>116</v>
       </c>
       <c r="H5" s="253" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I5" s="253" t="s">
         <v>117</v>
@@ -12278,21 +12290,27 @@
         <v>120</v>
       </c>
       <c r="M5" s="253" t="s">
+        <v>129</v>
+      </c>
+      <c r="N5" s="253" t="s">
+        <v>130</v>
+      </c>
+      <c r="O5" s="253" t="s">
+        <v>131</v>
+      </c>
+      <c r="P5" s="253" t="s">
         <v>121</v>
       </c>
-      <c r="N5" s="253" t="s">
+      <c r="Q5" s="253" t="s">
         <v>122</v>
       </c>
-      <c r="O5" s="253" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="235">
         <v>1</v>
       </c>
       <c r="B6" s="235" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="50">
         <v>45264</v>
@@ -12329,16 +12347,21 @@
         <v>30975</v>
       </c>
       <c r="M6" s="257"/>
-      <c r="N6" s="256"/>
-      <c r="O6" s="256"/>
-    </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="N6" s="257"/>
+      <c r="O6" s="257"/>
+      <c r="P6" s="257">
+        <f>L6-(O6+N6+M6)</f>
+        <v>30975</v>
+      </c>
+      <c r="Q6" s="256"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="235">
         <f>A6+1</f>
         <v>2</v>
       </c>
       <c r="B7" s="235" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="50">
         <v>45296</v>
@@ -12373,42 +12396,64 @@
         <v>103040</v>
       </c>
       <c r="M7" s="257"/>
-      <c r="N7" s="256"/>
-      <c r="O7" s="235"/>
-    </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="N7" s="257"/>
+      <c r="O7" s="257"/>
+      <c r="P7" s="257">
+        <f t="shared" ref="P7:P9" si="0">L7-(O7+N7+M7)</f>
+        <v>103040</v>
+      </c>
+      <c r="Q7" s="235"/>
+    </row>
+    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="235">
         <f>A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="235"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
+      <c r="B8" s="235" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="50">
+        <v>45335</v>
+      </c>
+      <c r="D8" s="235">
+        <v>292</v>
+      </c>
+      <c r="E8" s="235">
+        <v>6925</v>
+      </c>
+      <c r="F8" s="235">
+        <v>10305</v>
+      </c>
       <c r="G8" s="235"/>
-      <c r="H8" s="255"/>
+      <c r="H8" s="255">
+        <v>14</v>
+      </c>
       <c r="I8" s="255">
         <f>G8*2</f>
         <v>0</v>
       </c>
       <c r="J8" s="255">
         <f>F8-E8-I8</f>
-        <v>0</v>
+        <v>3380</v>
       </c>
       <c r="K8" s="256">
         <f>J8/45</f>
-        <v>0</v>
+        <v>75.111111111111114</v>
       </c>
       <c r="L8" s="257">
         <f>J8*H8</f>
-        <v>0</v>
+        <v>47320</v>
       </c>
       <c r="M8" s="257"/>
-      <c r="N8" s="256"/>
-      <c r="O8" s="235"/>
-    </row>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="N8" s="257"/>
+      <c r="O8" s="257"/>
+      <c r="P8" s="257">
+        <f t="shared" si="0"/>
+        <v>47320</v>
+      </c>
+      <c r="Q8" s="235"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="235">
         <f>A8+1</f>
         <v>4</v>
@@ -12437,8 +12482,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="257"/>
-      <c r="N9" s="256"/>
-      <c r="O9" s="235"/>
+      <c r="N9" s="257"/>
+      <c r="O9" s="257"/>
+      <c r="P9" s="257">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="235"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/الأنتاج اليومي 2023.xlsx
+++ b/الأنتاج اليومي 2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="712" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="712" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="نوفمبر" sheetId="2" r:id="rId1"/>
@@ -4423,6 +4423,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="اجمالي الحاويات"/>
       <sheetName val="الحاوية الاولى"/>
       <sheetName val="الحاوية الثانية"/>
       <sheetName val="الحاوية الثالثة"/>
@@ -4455,14 +4456,14 @@
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10">
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11">
         <row r="14">
           <cell r="D14">
             <v>25555</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11" refreshError="1"/>
       <sheetData sheetId="12" refreshError="1"/>
       <sheetData sheetId="13" refreshError="1"/>
       <sheetData sheetId="14" refreshError="1"/>
@@ -4471,6 +4472,7 @@
       <sheetData sheetId="17" refreshError="1"/>
       <sheetData sheetId="18" refreshError="1"/>
       <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9733,7 +9735,7 @@
   </sheetPr>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -12234,10 +12236,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:Q9"/>
+  <dimension ref="A4:Q11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L11" activeCellId="1" sqref="J11 L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12489,6 +12491,36 @@
         <v>0</v>
       </c>
       <c r="Q9" s="235"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="J11" s="243">
+        <f>SUM(J6:J10)</f>
+        <v>12805</v>
+      </c>
+      <c r="K11" s="243">
+        <f t="shared" ref="K11:P11" si="1">SUM(K6:K10)</f>
+        <v>284.55555555555554</v>
+      </c>
+      <c r="L11" s="243">
+        <f t="shared" si="1"/>
+        <v>181335</v>
+      </c>
+      <c r="M11" s="243">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="243">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="243">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="243">
+        <f t="shared" si="1"/>
+        <v>181335</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
